--- a/va_facility_data_2025-02-20/Presque Isle VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Presque%20Isle%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Presque Isle VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Presque%20Isle%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R441ecac33a6c430eb7300584cc6eb620"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1eaa536a8aa047e6a928a681fefb7b67"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb793a3e5ae24faa83685d4b20977b27"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc9e6c927b2a547c7a99660ea5916f4b7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6ab2e21578c440d8149443290603f5f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6e32d000f2694bd5a8d1bfe45da46a89"/>
   </x:sheets>
 </x:workbook>
 </file>
